--- a/.source/TODO List.xlsx
+++ b/.source/TODO List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>Braga</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Schnapps</t>
   </si>
   <si>
-    <t>Русское название</t>
-  </si>
-  <si>
-    <t>Английское название</t>
-  </si>
-  <si>
     <t>Хлеб</t>
   </si>
   <si>
@@ -227,13 +221,25 @@
   </si>
   <si>
     <t>Rice flour</t>
+  </si>
+  <si>
+    <t>Эффект русское название</t>
+  </si>
+  <si>
+    <t>Эффект английское название</t>
+  </si>
+  <si>
+    <t>Варево русское название</t>
+  </si>
+  <si>
+    <t>Варево английское название</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +256,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -273,13 +273,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,11 +630,95 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -462,13 +743,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -530,7 +811,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -594,7 +875,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -658,7 +939,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -722,7 +1003,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -786,7 +1067,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -850,7 +1131,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -914,7 +1195,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -978,7 +1259,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1042,7 +1323,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1106,7 +1387,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1170,7 +1451,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1234,7 +1515,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1298,7 +1579,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1362,7 +1643,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1426,7 +1707,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1490,7 +1771,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1554,9 +1835,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1618,7 +1899,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1682,7 +1963,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1746,7 +2027,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2899,8 +3180,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2948,6 +3229,1245 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3242,344 +4762,542 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="G17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,7 +5320,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3613,7 +5331,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId5" name="Check Box 5">
+            <control shapeId="1029" r:id="rId5" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3624,7 +5342,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3635,7 +5353,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId6" name="Check Box 6">
+            <control shapeId="1030" r:id="rId6" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3646,7 +5364,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3657,7 +5375,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId7" name="Check Box 7">
+            <control shapeId="1031" r:id="rId7" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3668,7 +5386,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3679,7 +5397,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId8" name="Check Box 8">
+            <control shapeId="1032" r:id="rId8" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3690,7 +5408,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3701,7 +5419,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId9" name="Check Box 9">
+            <control shapeId="1033" r:id="rId9" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3712,7 +5430,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3723,7 +5441,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId10" name="Check Box 10">
+            <control shapeId="1034" r:id="rId10" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3734,7 +5452,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3745,7 +5463,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId11" name="Check Box 11">
+            <control shapeId="1035" r:id="rId11" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3756,7 +5474,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3767,7 +5485,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId12" name="Check Box 12">
+            <control shapeId="1036" r:id="rId12" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3778,7 +5496,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3789,7 +5507,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
+            <control shapeId="1037" r:id="rId13" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3800,7 +5518,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3811,7 +5529,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId14" name="Check Box 14">
+            <control shapeId="1038" r:id="rId14" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3822,7 +5540,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3833,7 +5551,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId15" name="Check Box 15">
+            <control shapeId="1039" r:id="rId15" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3844,7 +5562,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3855,7 +5573,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId16" name="Check Box 16">
+            <control shapeId="1040" r:id="rId16" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3866,7 +5584,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3877,7 +5595,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId17" name="Check Box 17">
+            <control shapeId="1041" r:id="rId17" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3888,7 +5606,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3899,7 +5617,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId18" name="Check Box 18">
+            <control shapeId="1042" r:id="rId18" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3910,7 +5628,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3921,7 +5639,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId19" name="Check Box 19">
+            <control shapeId="1043" r:id="rId19" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3932,7 +5650,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3943,7 +5661,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId20" name="Check Box 20">
+            <control shapeId="1044" r:id="rId20" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3954,7 +5672,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -3965,7 +5683,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId21" name="Check Box 21">
+            <control shapeId="1045" r:id="rId21" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3976,9 +5694,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3987,7 +5705,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId22" name="Check Box 22">
+            <control shapeId="1046" r:id="rId22" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3998,7 +5716,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4009,7 +5727,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId23" name="Check Box 23">
+            <control shapeId="1047" r:id="rId23" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4020,7 +5738,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4031,7 +5749,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId24" name="Check Box 24">
+            <control shapeId="1048" r:id="rId24" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4042,7 +5760,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4053,7 +5771,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId25" name="Check Box 25">
+            <control shapeId="1049" r:id="rId25" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4075,7 +5793,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId26" name="Check Box 26">
+            <control shapeId="1050" r:id="rId26" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4097,7 +5815,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId27" name="Check Box 27">
+            <control shapeId="1051" r:id="rId27" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4119,7 +5837,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId28" name="Check Box 28">
+            <control shapeId="1052" r:id="rId28" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4141,7 +5859,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId29" name="Check Box 29">
+            <control shapeId="1053" r:id="rId29" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4163,7 +5881,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId30" name="Check Box 30">
+            <control shapeId="1054" r:id="rId30" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4185,7 +5903,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId31" name="Check Box 31">
+            <control shapeId="1055" r:id="rId31" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4207,7 +5925,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId32" name="Check Box 32">
+            <control shapeId="1056" r:id="rId32" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4229,7 +5947,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId33" name="Check Box 33">
+            <control shapeId="1057" r:id="rId33" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4251,7 +5969,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId34" name="Check Box 34">
+            <control shapeId="1058" r:id="rId34" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4273,7 +5991,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId35" name="Check Box 35">
+            <control shapeId="1059" r:id="rId35" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4295,7 +6013,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId36" name="Check Box 36">
+            <control shapeId="1060" r:id="rId36" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4317,7 +6035,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId37" name="Check Box 37">
+            <control shapeId="1061" r:id="rId37" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4339,7 +6057,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId38" name="Check Box 38">
+            <control shapeId="1062" r:id="rId38" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4361,7 +6079,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId39" name="Check Box 39">
+            <control shapeId="1063" r:id="rId39" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4383,7 +6101,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId40" name="Check Box 40">
+            <control shapeId="1064" r:id="rId40" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4405,7 +6123,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId41" name="Check Box 41">
+            <control shapeId="1065" r:id="rId41" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4427,7 +6145,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId42" name="Check Box 42">
+            <control shapeId="1066" r:id="rId42" name="Флажок">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4439,7 +6157,469 @@
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId43" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId44" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId45" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId46" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId47" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId48" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId49" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId50" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId51" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId52" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId53" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId54" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId55" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId56" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId57" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId58" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId59" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId60" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId61" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId62" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId63" name="Флажок">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/.source/TODO List.xlsx
+++ b/.source/TODO List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
   <si>
     <t>Braga</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Шампанское</t>
   </si>
   <si>
-    <t>Шнапс</t>
-  </si>
-  <si>
     <t>Brandy</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Wine</t>
   </si>
   <si>
-    <t>Grape</t>
-  </si>
-  <si>
     <t>Whisky</t>
   </si>
   <si>
@@ -136,110 +130,218 @@
     <t>Sake</t>
   </si>
   <si>
-    <t>Samogon</t>
-  </si>
-  <si>
     <t>Cider</t>
   </si>
   <si>
     <t>Champagne</t>
   </si>
   <si>
-    <t>Schnapps</t>
-  </si>
-  <si>
     <t>Хлеб</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>Ингридиент английское название</t>
-  </si>
-  <si>
-    <t>Ингридиент русское название</t>
-  </si>
-  <si>
     <t>Bread</t>
   </si>
   <si>
-    <t>Выполнено</t>
-  </si>
-  <si>
-    <t>ВСТРОЕННОЕ</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
     <t>Картофель</t>
   </si>
   <si>
-    <t>Пшеничная мука</t>
-  </si>
-  <si>
-    <t>Ячменная мука</t>
-  </si>
-  <si>
     <t>Ржанная мука</t>
   </si>
   <si>
-    <t>Кукурузная мука</t>
-  </si>
-  <si>
-    <t>Рисовая мука</t>
-  </si>
-  <si>
     <t>Сахар</t>
   </si>
   <si>
     <t>Sugar</t>
   </si>
   <si>
-    <t>Яблоко</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Бутылочка мёда</t>
-  </si>
-  <si>
-    <t>Wheat flour</t>
-  </si>
-  <si>
-    <t>Maize flour</t>
-  </si>
-  <si>
-    <t>Bottle of honey</t>
-  </si>
-  <si>
-    <t>Barley flour</t>
-  </si>
-  <si>
     <t>Rye flour</t>
   </si>
   <si>
-    <t>Rice flour</t>
-  </si>
-  <si>
-    <t>Эффект русское название</t>
-  </si>
-  <si>
-    <t>Эффект английское название</t>
-  </si>
-  <si>
-    <t>Варево русское название</t>
-  </si>
-  <si>
-    <t>Варево английское название</t>
+    <t>Watermelon schnapps</t>
+  </si>
+  <si>
+    <t>Арбузный шнапс</t>
+  </si>
+  <si>
+    <t>Moonshine</t>
+  </si>
+  <si>
+    <t>Яблоки</t>
+  </si>
+  <si>
+    <t>Пшеница</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Хмель</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>Рис</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Бутылочки мёда</t>
+  </si>
+  <si>
+    <t>Кукуруза</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Bottles of honey</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Курсив
+Italic</t>
+  </si>
+  <si>
+    <t>Не планируется
+Not planned</t>
+  </si>
+  <si>
+    <t>Легенда
+Legend</t>
+  </si>
+  <si>
+    <t>Зелёный фон
+Green background</t>
+  </si>
+  <si>
+    <t>Уже существует
+Already exists</t>
+  </si>
+  <si>
+    <t>Выполнено
+Complete</t>
+  </si>
+  <si>
+    <t>2 Sweet berries
+2 Apples</t>
+  </si>
+  <si>
+    <t>2 Сладкие ягоды
+2 Яблоки</t>
+  </si>
+  <si>
+    <t>2 Семена кукурузы
+2 Яблоки</t>
+  </si>
+  <si>
+    <t>2 Corn seeds
+2 Apples</t>
+  </si>
+  <si>
+    <t>2 Семена пшеницы
+2 Сладкие ягоды</t>
+  </si>
+  <si>
+    <t>2 Wheat seeds
+2 Sweet berries</t>
+  </si>
+  <si>
+    <t>2 Винограда
+2 Яблока</t>
+  </si>
+  <si>
+    <t>2 Grapes
+2 Apples</t>
+  </si>
+  <si>
+    <t>2 Арбузный сок
+2 Сладкие ягоды</t>
+  </si>
+  <si>
+    <t>2 Apple juice
+2 Sweet berries</t>
+  </si>
+  <si>
+    <t>2 Светящиеся ягоды
+2 Сахара
+ИЛИ
+2 Любых гриба
+2 Сахара</t>
+  </si>
+  <si>
+    <t>2 Glow berries
+2 Sugar
+OR
+2 Any mushrooms
+2 Sugar</t>
+  </si>
+  <si>
+    <t>2 Сахара
+2 Кукурузы</t>
+  </si>
+  <si>
+    <t>2 Sugar
+2 Corn</t>
+  </si>
+  <si>
+    <t>2 Grapes
+2 Any flowers</t>
+  </si>
+  <si>
+    <t>2 Виноград
+2 Любых цветка</t>
+  </si>
+  <si>
+    <t>2 Дольки арбуза
+2 Пшеницы</t>
+  </si>
+  <si>
+    <t>2 Watermelon slices
+2 Wheat</t>
+  </si>
+  <si>
+    <t>Варево
+(Русское название)</t>
+  </si>
+  <si>
+    <t>Brew
+(English name)</t>
+  </si>
+  <si>
+    <t>Ингридиент
+(Русское название)</t>
+  </si>
+  <si>
+    <t>Ingredient
+(English name)</t>
+  </si>
+  <si>
+    <t>Эффект
+(Русское название)</t>
+  </si>
+  <si>
+    <t>Effect
+(English name)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +350,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,15 +367,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -409,14 +524,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -425,11 +542,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -438,8 +557,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -447,39 +568,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -559,7 +790,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,35 +921,7 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -812,8 +1015,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -875,7 +1078,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1131,7 +1334,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1260,8 +1463,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1387,7 +1590,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1451,9 +1654,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>762000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1830,14 +2033,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>380999</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>390524</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1899,7 +2102,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2028,8 +2231,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2086,76 +2289,12 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1049" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2219,7 +2358,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2278,204 +2417,12 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1052" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2539,9 +2486,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2603,7 +2550,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2662,268 +2609,12 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1059" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2982,78 +2673,14 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3115,7 +2742,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3172,76 +2799,17 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Флажок" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Флажок" hidden="1">
@@ -3287,20 +2855,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Флажок" hidden="1">
@@ -3346,20 +2919,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Флажок" hidden="1">
@@ -3405,20 +2983,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Флажок" hidden="1">
@@ -3464,20 +3047,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Флажок" hidden="1">
@@ -3523,20 +3111,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Флажок" hidden="1">
@@ -3582,20 +3175,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Флажок" hidden="1">
@@ -3641,20 +3239,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Флажок" hidden="1">
@@ -3700,20 +3303,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Флажок" hidden="1">
@@ -3759,20 +3367,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Флажок" hidden="1">
@@ -3818,20 +3431,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Флажок" hidden="1">
@@ -3877,20 +3495,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>762000</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Флажок" hidden="1">
@@ -3936,20 +3559,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Флажок" hidden="1">
@@ -3995,20 +3623,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Флажок" hidden="1">
@@ -4054,20 +3687,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Флажок" hidden="1">
@@ -4113,20 +3751,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Флажок" hidden="1">
@@ -4172,20 +3815,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Флажок" hidden="1">
@@ -4231,20 +3879,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>380999</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+          <xdr:rowOff>390524</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Флажок" hidden="1">
@@ -4290,20 +3943,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Флажок" hidden="1">
@@ -4349,20 +4007,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Флажок" hidden="1">
@@ -4408,6 +4071,188 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Флажок" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="790575" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="857250" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -4418,16 +4263,16 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:ext cx="790575" cy="190500"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1087" name="Флажок" hidden="1">
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1087"/>
+                  <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4762,542 +4607,559 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>49</v>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
+      <c r="D4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="E6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="D8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="G9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
+      <c r="D10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="G10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
+      <c r="B17" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="E17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
+      <c r="B18" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="E18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
+      <c r="D19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="7"/>
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="H20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="7"/>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="10"/>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5331,7 +5193,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId5" name="Флажок">
+            <control shapeId="1029" r:id="rId5" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5343,359 +5205,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId6" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId7" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId8" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId9" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId10" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId11" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId12" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId14" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId15" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId16" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId17" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId18" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId19" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId20" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId21" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>2</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5705,19 +5215,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId22" name="Флажок">
+            <control shapeId="1030" r:id="rId6" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5727,19 +5237,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId23" name="Флажок">
+            <control shapeId="1031" r:id="rId7" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5749,19 +5259,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId24" name="Флажок">
+            <control shapeId="1032" r:id="rId8" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5771,19 +5281,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId25" name="Флажок">
+            <control shapeId="1033" r:id="rId9" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5793,19 +5303,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId26" name="Флажок">
+            <control shapeId="1034" r:id="rId10" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5815,19 +5325,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId27" name="Флажок">
+            <control shapeId="1035" r:id="rId11" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5837,327 +5347,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId28" name="Флажок">
+            <control shapeId="1036" r:id="rId12" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId29" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId30" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId31" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId32" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId33" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId34" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId35" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId36" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId37" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId38" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId39" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId40" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId41" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId42" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6167,19 +5369,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId43" name="Флажок">
+            <control shapeId="1037" r:id="rId13" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>1</xdr:row>
+                    <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6189,19 +5391,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId44" name="Флажок">
+            <control shapeId="1038" r:id="rId14" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6211,20 +5413,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId45" name="Флажок">
+            <control shapeId="1039" r:id="rId15" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>762000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6233,19 +5435,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId46" name="Флажок">
+            <control shapeId="1040" r:id="rId16" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6255,19 +5457,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId47" name="Флажок">
+            <control shapeId="1041" r:id="rId17" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6277,19 +5479,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId48" name="Флажок">
+            <control shapeId="1042" r:id="rId18" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6299,19 +5501,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId49" name="Флажок">
+            <control shapeId="1043" r:id="rId19" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6321,19 +5523,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId50" name="Флажок">
+            <control shapeId="1044" r:id="rId20" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>9</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6343,20 +5545,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId51" name="Флажок">
+            <control shapeId="1045" r:id="rId21" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>381000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6365,19 +5567,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId52" name="Флажок">
+            <control shapeId="1046" r:id="rId22" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6387,19 +5589,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId53" name="Флажок">
+            <control shapeId="1047" r:id="rId23" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6409,151 +5611,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId54" name="Флажок">
+            <control shapeId="1048" r:id="rId24" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1079" r:id="rId55" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1080" r:id="rId56" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1081" r:id="rId57" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1082" r:id="rId58" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1083" r:id="rId59" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1084" r:id="rId60" name="Флажок">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6563,19 +5633,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1085" r:id="rId61" name="Флажок">
+            <control shapeId="1050" r:id="rId25" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6585,19 +5655,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1086" r:id="rId62" name="Флажок">
+            <control shapeId="1051" r:id="rId26" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6607,7 +5677,579 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1087" r:id="rId63" name="Флажок">
+            <control shapeId="1055" r:id="rId27" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId28" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId29" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId30" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId31" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId32" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId33" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId34" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId35" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId36" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId37" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId38" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId39" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId40" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId41" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId42" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId43" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId44" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>762000</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId45" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId46" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId47" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId48" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId49" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId50" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>381000</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId51" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId52" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId53" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -6619,7 +6261,73 @@
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId54" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId55" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId56" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/.source/TODO List.xlsx
+++ b/.source/TODO List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Braga</t>
   </si>
@@ -191,10 +191,6 @@
 (Русское название)</t>
   </si>
   <si>
-    <t>Brew
-(English name)</t>
-  </si>
-  <si>
     <t>Эффект
 (Русское название)</t>
   </si>
@@ -270,9 +266,6 @@
   </si>
   <si>
     <t>4 Corn</t>
-  </si>
-  <si>
-    <t>italiansdelight:sweetberry_wine</t>
   </si>
   <si>
     <t>4 Grapes</t>
@@ -306,6 +299,25 @@
   <si>
     <t>2 Семя пшеницы
 2 Сладких ягоды</t>
+  </si>
+  <si>
+    <t>honey_bottle</t>
+  </si>
+  <si>
+    <t>sweet_wine</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>braga</t>
+  </si>
+  <si>
+    <t>vodka</t>
+  </si>
+  <si>
+    <t>Beverage
+(English name)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1058,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,31 +1082,31 @@
         <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>37</v>
@@ -1108,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="10">
         <v>12000</v>
@@ -1141,16 +1153,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="10">
         <v>12000</v>
@@ -1174,16 +1186,16 @@
         <v>27</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="10">
         <v>12000</v>
@@ -1207,16 +1219,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="10">
         <v>12000</v>
@@ -1240,16 +1252,16 @@
         <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="10">
         <v>12000</v>
@@ -1273,16 +1285,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10">
         <v>12000</v>
@@ -1303,7 +1315,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>48</v>
@@ -1312,10 +1324,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="10">
         <v>12000</v>
@@ -1339,16 +1351,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="16">
         <v>12000</v>
@@ -1372,16 +1384,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="10">
         <v>12000</v>
@@ -1405,16 +1417,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="10">
         <v>12000</v>
@@ -1438,16 +1450,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="23">
         <v>12000</v>
@@ -1471,16 +1483,16 @@
         <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="10">
         <v>12000</v>
@@ -1510,10 +1522,10 @@
         <v>46</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="29">
         <v>12000</v>
@@ -1537,16 +1549,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="23">
         <v>12000</v>
@@ -1570,16 +1582,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="10">
         <v>12000</v>
@@ -1609,10 +1621,10 @@
         <v>42</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="35">
         <v>12000</v>
